--- a/data/trans_orig/Q02G_LAB-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_LAB-Habitat-trans_orig.xlsx
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.399334846563079</v>
+        <v>2.244062093581551</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.880202534796511</v>
+        <v>2.883231841206427</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.460512514662068</v>
+        <v>2.469396252535992</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.683072148780103</v>
+        <v>3.680991988020039</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.655842446764018</v>
+        <v>2.607253484901741</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.763048992274605</v>
+        <v>3.743556526800884</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.257512276492971</v>
+        <v>7.095668457448781</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.54376003890258</v>
+        <v>6.433604356333578</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.815881478819416</v>
+        <v>3.775570788737021</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.834903217000451</v>
+        <v>6.03284066029928</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.071386206507399</v>
+        <v>4.079569081863494</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.687738128967728</v>
+        <v>5.695309444344545</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.859479575358122</v>
+        <v>3.035105752758083</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.415070521689381</v>
+        <v>2.483789671638154</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.85491990255781</v>
+        <v>2.911271147797443</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.078423648074964</v>
+        <v>3.022805805929397</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.130772088002667</v>
+        <v>3.09269346119675</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.091333080162559</v>
+        <v>3.121121608660019</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.084431944573295</v>
+        <v>5.282348456253358</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.485022047484687</v>
+        <v>9.586880425742711</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.172276012456538</v>
+        <v>5.281901618643715</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.917669289667832</v>
+        <v>5.040881844472294</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>4.836471754421147</v>
+        <v>4.952675245206477</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>5.124451684559359</v>
+        <v>5.24001557605829</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.613509058750735</v>
+        <v>2.544277865468203</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.668355333721969</v>
+        <v>3.761127352762848</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.720444480334962</v>
+        <v>2.714957805636478</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.738251523363909</v>
+        <v>3.71560682693277</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.584446057583381</v>
+        <v>2.503506154319755</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.004585563420185</v>
+        <v>7.068769312136512</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.208140207285649</v>
+        <v>6.085058550228593</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.779072627729445</v>
+        <v>5.596694340960923</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.924047471121169</v>
+        <v>5.906261931502846</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.38243294114972</v>
+        <v>5.031566117767643</v>
       </c>
     </row>
     <row r="13">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.814131724724535</v>
+        <v>1.903186850512685</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.847450868015388</v>
+        <v>1.879429333835725</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.808550977413728</v>
+        <v>3.814374363817415</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.855190619467247</v>
+        <v>2.729627463810631</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.417886701051611</v>
+        <v>3.45038046666163</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.731741427676017</v>
+        <v>2.720697279126355</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.239518756340801</v>
+        <v>3.359116946277703</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.915983061952663</v>
+        <v>4.071988396890427</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.322396500004546</v>
+        <v>6.370925911753635</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.316440366684753</v>
+        <v>6.016114192281789</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>5.549935735247864</v>
+        <v>5.361419731378202</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>5.00367924927858</v>
+        <v>5.35593092075592</v>
       </c>
     </row>
     <row r="16">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.011062361102521</v>
+        <v>2.994944339189508</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.750538716057882</v>
+        <v>2.785341727256273</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.51945519972507</v>
+        <v>3.456004052537568</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.491628401698753</v>
+        <v>3.448042303809486</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.502046465612807</v>
+        <v>3.494174684769595</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.477089444420072</v>
+        <v>3.397440090691974</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.745349766592464</v>
+        <v>4.725761270661322</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.888284572871938</v>
+        <v>4.93509240934154</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.600665048500767</v>
+        <v>4.589877368671024</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.84941893548565</v>
+        <v>4.772696855173283</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.45654399168921</v>
+        <v>4.452934122182998</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.55340192554698</v>
+        <v>4.520101855823212</v>
       </c>
     </row>
     <row r="19">
